--- a/Dummy_metricsTest.xlsx
+++ b/Dummy_metricsTest.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\eclipse-workspace\ES-2Sem-2021-Grupo53\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8518406-0FB2-42C9-8492-C13FD076FA9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{94FA7405-5129-4BD9-8D52-C5A4A2BB191F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dummy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -449,7 +445,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>24</v>
@@ -840,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -849,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
